--- a/public/Menu/menu 16th to 31st oct-23-2.xlsx
+++ b/public/Menu/menu 16th to 31st oct-23-2.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cuding\GitHub\bppc-mess-menu\public\Menu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138C603A-D308-41BD-B173-1E8222130067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -568,31 +577,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <sz val="11.0"/>
-      <color/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color/>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -601,7 +607,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -653,7 +659,13 @@
     </fill>
   </fills>
   <borders count="27">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -667,6 +679,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -677,6 +690,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -689,6 +703,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -701,6 +716,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -709,6 +725,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -723,6 +740,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -737,6 +755,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -747,136 +766,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -884,52 +774,208 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -940,213 +986,211 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="58">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="16" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="20" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="21" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="22" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1310,21 +1354,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1341,7 +1385,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1391,39 +1435,34 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="19.57"/>
-    <col customWidth="1" min="4" max="4" width="21.86"/>
-    <col customWidth="1" min="5" max="5" width="19.86"/>
-    <col customWidth="1" min="6" max="6" width="18.29"/>
-    <col customWidth="1" min="7" max="8" width="18.43"/>
-    <col customWidth="1" min="9" max="9" width="19.57"/>
-    <col customWidth="1" min="10" max="10" width="20.14"/>
-    <col customWidth="1" min="11" max="11" width="17.71"/>
-    <col customWidth="1" min="12" max="12" width="19.43"/>
-    <col customWidth="1" min="13" max="13" width="17.0"/>
-    <col customWidth="1" min="14" max="14" width="20.43"/>
-    <col customWidth="1" min="15" max="15" width="19.29"/>
-    <col customWidth="1" min="16" max="16" width="17.0"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1473,57 +1512,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1">
       <c r="A2" s="5">
-        <v>45215.0</v>
+        <v>45215</v>
       </c>
       <c r="B2" s="5">
-        <v>45216.0</v>
+        <v>45216</v>
       </c>
       <c r="C2" s="5">
-        <v>45217.0</v>
+        <v>45217</v>
       </c>
       <c r="D2" s="5">
-        <v>45218.0</v>
+        <v>45218</v>
       </c>
       <c r="E2" s="5">
-        <v>45219.0</v>
+        <v>45219</v>
       </c>
       <c r="F2" s="5">
-        <v>45220.0</v>
+        <v>45220</v>
       </c>
       <c r="G2" s="5">
-        <v>45221.0</v>
+        <v>45221</v>
       </c>
       <c r="H2" s="5">
-        <v>45222.0</v>
+        <v>45222</v>
       </c>
       <c r="I2" s="5">
-        <v>45223.0</v>
+        <v>45223</v>
       </c>
       <c r="J2" s="5">
-        <v>45224.0</v>
+        <v>45224</v>
       </c>
       <c r="K2" s="5">
-        <v>45225.0</v>
+        <v>45225</v>
       </c>
       <c r="L2" s="5">
-        <v>45226.0</v>
+        <v>45226</v>
       </c>
       <c r="M2" s="5">
-        <v>45227.0</v>
+        <v>45227</v>
       </c>
       <c r="N2" s="5">
-        <v>45228.0</v>
+        <v>45228</v>
       </c>
       <c r="O2" s="5">
-        <v>45229.0</v>
+        <v>45229</v>
       </c>
       <c r="P2" s="5">
-        <v>45230.0</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="12.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1623,7 +1662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:16" ht="12.75" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1673,7 +1712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -1723,7 +1762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:16" ht="12.75" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -1773,7 +1812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:16" ht="12.75" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
@@ -1823,7 +1862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -1873,7 +1912,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:16" ht="12.75" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>41</v>
       </c>
@@ -1923,7 +1962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:16" ht="12.75" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
@@ -1973,7 +2012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:16" ht="12.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>48</v>
       </c>
@@ -2023,7 +2062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:16" ht="12.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:16" ht="12.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -2123,7 +2162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:16" ht="12.75" customHeight="1">
       <c r="A15" s="22" t="s">
         <v>51</v>
       </c>
@@ -2173,7 +2212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:16" ht="12.75" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>61</v>
       </c>
@@ -2183,34 +2222,34 @@
       <c r="C16" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>67</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="M16" s="32" t="s">
+      <c r="M16" s="31" t="s">
         <v>73</v>
       </c>
       <c r="N16" s="14" t="s">
@@ -2223,7 +2262,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:16" ht="12.75" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>76</v>
       </c>
@@ -2233,13 +2272,13 @@
       <c r="C17" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="14" t="s">
@@ -2254,13 +2293,13 @@
       <c r="J17" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="14" t="s">
         <v>79</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="31" t="s">
         <v>86</v>
       </c>
       <c r="N17" s="14" t="s">
@@ -2273,7 +2312,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:16" ht="12.75" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>89</v>
       </c>
@@ -2283,10 +2322,10 @@
       <c r="C18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="27" t="s">
         <v>93</v>
       </c>
       <c r="F18" s="15" t="s">
@@ -2304,10 +2343,10 @@
       <c r="J18" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="14" t="s">
         <v>99</v>
       </c>
       <c r="M18" s="14" t="s">
@@ -2323,7 +2362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:16" ht="12.75" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>102</v>
       </c>
@@ -2339,7 +2378,7 @@
       <c r="E19" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="28" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="14" t="s">
@@ -2360,7 +2399,7 @@
       <c r="L19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="31" t="s">
         <v>13</v>
       </c>
       <c r="N19" s="14" t="s">
@@ -2373,7 +2412,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:16" ht="12.75" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>106</v>
       </c>
@@ -2423,35 +2462,35 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:16" ht="12.75" customHeight="1">
       <c r="A21" s="18" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>114</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="33" t="s">
         <v>113</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>115</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="35" t="s">
         <v>117</v>
       </c>
       <c r="K21" s="18" t="s">
@@ -2463,7 +2502,7 @@
       <c r="M21" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="N21" s="35" t="s">
+      <c r="N21" s="34" t="s">
         <v>118</v>
       </c>
       <c r="O21" s="19" t="s">
@@ -2473,53 +2512,53 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A22" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>120</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="37" t="s">
+      <c r="K22" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="36" t="s">
         <v>129</v>
       </c>
       <c r="N22" s="9"/>
-      <c r="O22" s="38" t="s">
+      <c r="O22" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="P22" s="37" t="s">
+      <c r="P22" s="36" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:16" ht="12.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:16" ht="12.75" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>130</v>
       </c>
@@ -2594,7 +2633,7 @@
       <c r="H24" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="40" t="s">
         <v>130</v>
       </c>
       <c r="J24" s="8" t="s">
@@ -2615,11 +2654,11 @@
       <c r="O24" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="P24" s="42" t="s">
+      <c r="P24" s="41" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:16" ht="12.75" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>131</v>
       </c>
@@ -2632,7 +2671,7 @@
       <c r="D25" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="27" t="s">
         <v>53</v>
       </c>
       <c r="F25" s="14" t="s">
@@ -2641,39 +2680,39 @@
       <c r="G25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="42" t="s">
         <v>52</v>
       </c>
       <c r="J25" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="44" t="s">
+      <c r="K25" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="L25" s="43" t="s">
+      <c r="L25" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="14" t="s">
         <v>136</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O25" s="45" t="s">
+      <c r="O25" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="46" t="s">
+      <c r="P25" s="45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A26" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="31" t="s">
         <v>139</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -2682,44 +2721,44 @@
       <c r="D26" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="43" t="s">
         <v>142</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="46" t="s">
         <v>146</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="K26" s="28" t="s">
+      <c r="K26" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="L26" s="48" t="s">
+      <c r="L26" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="M26" s="47" t="s">
+      <c r="M26" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="N26" s="49" t="s">
+      <c r="N26" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="O26" s="47" t="s">
+      <c r="O26" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="P26" s="50" t="s">
+      <c r="P26" s="31" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:16" ht="12.75" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>154</v>
       </c>
@@ -2732,7 +2771,7 @@
       <c r="D27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="27" t="s">
         <v>157</v>
       </c>
       <c r="F27" s="14" t="s">
@@ -2741,35 +2780,35 @@
       <c r="G27" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="47" t="s">
         <v>160</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="K27" s="28" t="s">
+      <c r="K27" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="14" t="s">
         <v>162</v>
       </c>
       <c r="N27" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="O27" s="48" t="s">
+      <c r="O27" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="P27" s="27" t="s">
+      <c r="P27" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:16" ht="12.75" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>165</v>
       </c>
@@ -2791,35 +2830,35 @@
       <c r="G28" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="I28" s="52" t="s">
+      <c r="I28" s="50" t="s">
         <v>102</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K28" s="53" t="s">
+      <c r="K28" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="L28" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="M28" s="50" t="s">
+      <c r="M28" s="31" t="s">
         <v>169</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="O28" s="52" t="s">
+      <c r="O28" s="50" t="s">
         <v>170</v>
       </c>
       <c r="P28" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:16" ht="12.75" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>107</v>
       </c>
@@ -2841,7 +2880,7 @@
       <c r="G29" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="50" t="s">
         <v>174</v>
       </c>
       <c r="I29" s="15" t="s">
@@ -2862,18 +2901,18 @@
       <c r="N29" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="O29" s="52" t="s">
+      <c r="O29" s="50" t="s">
         <v>174</v>
       </c>
       <c r="P29" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:16" ht="12.75" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="52" t="s">
         <v>116</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -2882,7 +2921,7 @@
       <c r="D30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="52" t="s">
         <v>176</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -2891,10 +2930,10 @@
       <c r="G30" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H30" s="52" t="s">
+      <c r="H30" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="50" t="s">
         <v>175</v>
       </c>
       <c r="J30" s="18" t="s">
@@ -2912,1295 +2951,1293 @@
       <c r="N30" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="O30" s="52" t="s">
+      <c r="O30" s="50" t="s">
         <v>175</v>
       </c>
       <c r="P30" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="55" t="s">
+    <row r="31" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A31" s="53" t="s">
         <v>177</v>
       </c>
       <c r="B31" s="15"/>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="54" t="s">
         <v>178</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="54" t="s">
         <v>179</v>
       </c>
       <c r="G31" s="15"/>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="38" t="s">
         <v>180</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J31" s="57" t="s">
+      <c r="J31" s="55" t="s">
         <v>181</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="55" t="s">
+      <c r="M31" s="53" t="s">
         <v>182</v>
       </c>
       <c r="N31" s="14"/>
-      <c r="O31" s="57" t="s">
+      <c r="O31" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="P31" s="58" t="s">
+      <c r="P31" s="56" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-    </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-    </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-    </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-    </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-    </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-    </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-    </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-    </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-    </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-    </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-    </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-    </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-    </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-    </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="59"/>
-    </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-    </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="59"/>
-    </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-    </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="59"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-    </row>
-    <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="59"/>
-    </row>
-    <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="59"/>
-    </row>
-    <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-    </row>
-    <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-    </row>
-    <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
-    </row>
-    <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="59"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59"/>
-      <c r="O68" s="59"/>
-      <c r="P68" s="59"/>
-    </row>
-    <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="59"/>
-    </row>
-    <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="59"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="59"/>
-      <c r="P70" s="59"/>
-    </row>
-    <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="59"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="59"/>
-    </row>
-    <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="59"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-    </row>
-    <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="59"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="59"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="59"/>
-    </row>
-    <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="59"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
-      <c r="L74" s="59"/>
-      <c r="M74" s="59"/>
-      <c r="N74" s="59"/>
-      <c r="O74" s="59"/>
-      <c r="P74" s="59"/>
-    </row>
-    <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="59"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="59"/>
-      <c r="N75" s="59"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="59"/>
-    </row>
-    <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="59"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="59"/>
-      <c r="P76" s="59"/>
-    </row>
-    <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="59"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="59"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="59"/>
-    </row>
-    <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="59"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="59"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="59"/>
-      <c r="N78" s="59"/>
-      <c r="O78" s="59"/>
-      <c r="P78" s="59"/>
-    </row>
-    <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="59"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="59"/>
-      <c r="P79" s="59"/>
-    </row>
-    <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="59"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="59"/>
-      <c r="P80" s="59"/>
-    </row>
-    <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="59"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="59"/>
-      <c r="P81" s="59"/>
-    </row>
-    <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="59"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="59"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="59"/>
-      <c r="P82" s="59"/>
-    </row>
-    <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="59"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="59"/>
-      <c r="P83" s="59"/>
-    </row>
-    <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="59"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="59"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="59"/>
-      <c r="P84" s="59"/>
-    </row>
-    <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="59"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-    </row>
-    <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="59"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="59"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="59"/>
-      <c r="P86" s="59"/>
-    </row>
-    <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="59"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="59"/>
-      <c r="L87" s="59"/>
-      <c r="M87" s="59"/>
-      <c r="N87" s="59"/>
-      <c r="O87" s="59"/>
-      <c r="P87" s="59"/>
-    </row>
-    <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="59"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="59"/>
-      <c r="N88" s="59"/>
-      <c r="O88" s="59"/>
-      <c r="P88" s="59"/>
-    </row>
-    <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="59"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="59"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="59"/>
-      <c r="L89" s="59"/>
-      <c r="M89" s="59"/>
-      <c r="N89" s="59"/>
-      <c r="O89" s="59"/>
-      <c r="P89" s="59"/>
-    </row>
-    <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="59"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="59"/>
-      <c r="N90" s="59"/>
-      <c r="O90" s="59"/>
-      <c r="P90" s="59"/>
-    </row>
-    <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="59"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="59"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59"/>
-      <c r="K91" s="59"/>
-      <c r="L91" s="59"/>
-      <c r="M91" s="59"/>
-      <c r="N91" s="59"/>
-      <c r="O91" s="59"/>
-      <c r="P91" s="59"/>
-    </row>
-    <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="59"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
-      <c r="N92" s="59"/>
-      <c r="O92" s="59"/>
-      <c r="P92" s="59"/>
-    </row>
-    <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="59"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="59"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="59"/>
-      <c r="J93" s="59"/>
-      <c r="K93" s="59"/>
-      <c r="L93" s="59"/>
-      <c r="M93" s="59"/>
-      <c r="N93" s="59"/>
-      <c r="O93" s="59"/>
-      <c r="P93" s="59"/>
-    </row>
-    <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="59"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="59"/>
-      <c r="G94" s="59"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="59"/>
-      <c r="L94" s="59"/>
-      <c r="M94" s="59"/>
-      <c r="N94" s="59"/>
-      <c r="O94" s="59"/>
-      <c r="P94" s="59"/>
-    </row>
-    <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="59"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="59"/>
-      <c r="K95" s="59"/>
-      <c r="L95" s="59"/>
-      <c r="M95" s="59"/>
-      <c r="N95" s="59"/>
-      <c r="O95" s="59"/>
-      <c r="P95" s="59"/>
-    </row>
-    <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="59"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="59"/>
-      <c r="I96" s="59"/>
-      <c r="J96" s="59"/>
-      <c r="K96" s="59"/>
-      <c r="L96" s="59"/>
-      <c r="M96" s="59"/>
-      <c r="N96" s="59"/>
-      <c r="O96" s="59"/>
-      <c r="P96" s="59"/>
-    </row>
-    <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="59"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="59"/>
-      <c r="J97" s="59"/>
-      <c r="K97" s="59"/>
-      <c r="L97" s="59"/>
-      <c r="M97" s="59"/>
-      <c r="N97" s="59"/>
-      <c r="O97" s="59"/>
-      <c r="P97" s="59"/>
-    </row>
-    <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="59"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="59"/>
-      <c r="K98" s="59"/>
-      <c r="L98" s="59"/>
-      <c r="M98" s="59"/>
-      <c r="N98" s="59"/>
-      <c r="O98" s="59"/>
-      <c r="P98" s="59"/>
-    </row>
-    <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="59"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="59"/>
-      <c r="K99" s="59"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="59"/>
-      <c r="N99" s="59"/>
-      <c r="O99" s="59"/>
-      <c r="P99" s="59"/>
-    </row>
-    <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="59"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
-      <c r="K100" s="59"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="59"/>
-      <c r="N100" s="59"/>
-      <c r="O100" s="59"/>
-      <c r="P100" s="59"/>
+    <row r="32" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+    </row>
+    <row r="34" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+    </row>
+    <row r="35" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+    </row>
+    <row r="36" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+    </row>
+    <row r="37" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+    </row>
+    <row r="38" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+    </row>
+    <row r="39" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+    </row>
+    <row r="40" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+    </row>
+    <row r="41" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+    </row>
+    <row r="42" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+    </row>
+    <row r="43" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+    </row>
+    <row r="44" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+    </row>
+    <row r="45" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+    </row>
+    <row r="46" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+    </row>
+    <row r="47" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+    </row>
+    <row r="48" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+    </row>
+    <row r="49" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+    </row>
+    <row r="50" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+    </row>
+    <row r="51" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+    </row>
+    <row r="52" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+    </row>
+    <row r="53" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+    </row>
+    <row r="54" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+    </row>
+    <row r="55" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+    </row>
+    <row r="56" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+    </row>
+    <row r="57" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+    </row>
+    <row r="58" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+    </row>
+    <row r="59" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+    </row>
+    <row r="60" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+    </row>
+    <row r="61" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+    </row>
+    <row r="62" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+    </row>
+    <row r="63" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+    </row>
+    <row r="64" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+    </row>
+    <row r="65" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A65" s="57"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+    </row>
+    <row r="66" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+    </row>
+    <row r="67" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="57"/>
+    </row>
+    <row r="68" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A68" s="57"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="57"/>
+    </row>
+    <row r="69" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A69" s="57"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+    </row>
+    <row r="70" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
+    </row>
+    <row r="71" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A71" s="57"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
+    </row>
+    <row r="72" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A72" s="57"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="57"/>
+      <c r="N72" s="57"/>
+      <c r="O72" s="57"/>
+      <c r="P72" s="57"/>
+    </row>
+    <row r="73" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="57"/>
+    </row>
+    <row r="74" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="57"/>
+      <c r="N74" s="57"/>
+      <c r="O74" s="57"/>
+      <c r="P74" s="57"/>
+    </row>
+    <row r="75" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+    </row>
+    <row r="76" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A76" s="57"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="57"/>
+    </row>
+    <row r="77" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+    </row>
+    <row r="78" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+    </row>
+    <row r="79" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+    </row>
+    <row r="80" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A80" s="57"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="57"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="57"/>
+      <c r="N80" s="57"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="57"/>
+    </row>
+    <row r="81" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A81" s="57"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="57"/>
+    </row>
+    <row r="82" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A82" s="57"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="57"/>
+    </row>
+    <row r="83" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A83" s="57"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="57"/>
+      <c r="L83" s="57"/>
+      <c r="M83" s="57"/>
+      <c r="N83" s="57"/>
+      <c r="O83" s="57"/>
+      <c r="P83" s="57"/>
+    </row>
+    <row r="84" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A84" s="57"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="57"/>
+      <c r="N84" s="57"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="57"/>
+    </row>
+    <row r="85" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A85" s="57"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
+      <c r="K85" s="57"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="57"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="57"/>
+    </row>
+    <row r="86" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A86" s="57"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="57"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="57"/>
+      <c r="N86" s="57"/>
+      <c r="O86" s="57"/>
+      <c r="P86" s="57"/>
+    </row>
+    <row r="87" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A87" s="57"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="57"/>
+      <c r="L87" s="57"/>
+      <c r="M87" s="57"/>
+      <c r="N87" s="57"/>
+      <c r="O87" s="57"/>
+      <c r="P87" s="57"/>
+    </row>
+    <row r="88" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A88" s="57"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="57"/>
+      <c r="L88" s="57"/>
+      <c r="M88" s="57"/>
+      <c r="N88" s="57"/>
+      <c r="O88" s="57"/>
+      <c r="P88" s="57"/>
+    </row>
+    <row r="89" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A89" s="57"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="57"/>
+      <c r="K89" s="57"/>
+      <c r="L89" s="57"/>
+      <c r="M89" s="57"/>
+      <c r="N89" s="57"/>
+      <c r="O89" s="57"/>
+      <c r="P89" s="57"/>
+    </row>
+    <row r="90" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A90" s="57"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="57"/>
+      <c r="K90" s="57"/>
+      <c r="L90" s="57"/>
+      <c r="M90" s="57"/>
+      <c r="N90" s="57"/>
+      <c r="O90" s="57"/>
+      <c r="P90" s="57"/>
+    </row>
+    <row r="91" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A91" s="57"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="57"/>
+      <c r="L91" s="57"/>
+      <c r="M91" s="57"/>
+      <c r="N91" s="57"/>
+      <c r="O91" s="57"/>
+      <c r="P91" s="57"/>
+    </row>
+    <row r="92" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A92" s="57"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="57"/>
+      <c r="J92" s="57"/>
+      <c r="K92" s="57"/>
+      <c r="L92" s="57"/>
+      <c r="M92" s="57"/>
+      <c r="N92" s="57"/>
+      <c r="O92" s="57"/>
+      <c r="P92" s="57"/>
+    </row>
+    <row r="93" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A93" s="57"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="57"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="57"/>
+      <c r="N93" s="57"/>
+      <c r="O93" s="57"/>
+      <c r="P93" s="57"/>
+    </row>
+    <row r="94" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A94" s="57"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
+      <c r="K94" s="57"/>
+      <c r="L94" s="57"/>
+      <c r="M94" s="57"/>
+      <c r="N94" s="57"/>
+      <c r="O94" s="57"/>
+      <c r="P94" s="57"/>
+    </row>
+    <row r="95" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A95" s="57"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="57"/>
+      <c r="L95" s="57"/>
+      <c r="M95" s="57"/>
+      <c r="N95" s="57"/>
+      <c r="O95" s="57"/>
+      <c r="P95" s="57"/>
+    </row>
+    <row r="96" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A96" s="57"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="57"/>
+      <c r="L96" s="57"/>
+      <c r="M96" s="57"/>
+      <c r="N96" s="57"/>
+      <c r="O96" s="57"/>
+      <c r="P96" s="57"/>
+    </row>
+    <row r="97" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A97" s="57"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="57"/>
+      <c r="J97" s="57"/>
+      <c r="K97" s="57"/>
+      <c r="L97" s="57"/>
+      <c r="M97" s="57"/>
+      <c r="N97" s="57"/>
+      <c r="O97" s="57"/>
+      <c r="P97" s="57"/>
+    </row>
+    <row r="98" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A98" s="57"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="57"/>
+      <c r="J98" s="57"/>
+      <c r="K98" s="57"/>
+      <c r="L98" s="57"/>
+      <c r="M98" s="57"/>
+      <c r="N98" s="57"/>
+      <c r="O98" s="57"/>
+      <c r="P98" s="57"/>
+    </row>
+    <row r="99" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A99" s="57"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="57"/>
+      <c r="L99" s="57"/>
+      <c r="M99" s="57"/>
+      <c r="N99" s="57"/>
+      <c r="O99" s="57"/>
+      <c r="P99" s="57"/>
+    </row>
+    <row r="100" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A100" s="57"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="57"/>
+      <c r="J100" s="57"/>
+      <c r="K100" s="57"/>
+      <c r="L100" s="57"/>
+      <c r="M100" s="57"/>
+      <c r="N100" s="57"/>
+      <c r="O100" s="57"/>
+      <c r="P100" s="57"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>